--- a/NtierMvc/App_Data/Documents/Excel/CustomerFeedback1.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/CustomerFeedback1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70FAE9-9D21-48EB-9F94-93845A66DFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -132,9 +138,6 @@
     <t xml:space="preserve"> MOT/F/SM/05 Rev.02</t>
   </si>
   <si>
-    <t>MACKERAL OIL TOOLS PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CUSTOMER SATISFACTION CUM FEEDBACK FORM</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
     </r>
   </si>
   <si>
-    <t>Mackeral Office Purpose Only</t>
-  </si>
-  <si>
     <t>% Satisfaction Achieved :</t>
   </si>
   <si>
@@ -242,12 +242,18 @@
   </si>
   <si>
     <t>P.O. No. &amp; Date : #CustPONO</t>
+  </si>
+  <si>
+    <t>SledgeHammer Oil Tools Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>SledgeHammer Office Purpose only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00\ ;\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
@@ -1183,67 +1189,70 @@
     </xf>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Accent1 - 20%" xfId="5"/>
-    <cellStyle name="Accent1 - 40%" xfId="13"/>
-    <cellStyle name="Accent1 - 60%" xfId="2"/>
-    <cellStyle name="Accent2 - 20%" xfId="12"/>
-    <cellStyle name="Accent2 - 40%" xfId="1"/>
-    <cellStyle name="Accent2 - 60%" xfId="14"/>
-    <cellStyle name="Accent3 - 20%" xfId="15"/>
-    <cellStyle name="Accent3 - 40%" xfId="7"/>
-    <cellStyle name="Accent3 - 60%" xfId="9"/>
-    <cellStyle name="Accent4 - 20%" xfId="16"/>
-    <cellStyle name="Accent4 - 40%" xfId="4"/>
-    <cellStyle name="Accent4 - 60%" xfId="17"/>
-    <cellStyle name="Accent5 - 20%" xfId="3"/>
-    <cellStyle name="Accent5 - 40%" xfId="18"/>
-    <cellStyle name="Accent5 - 60%" xfId="11"/>
-    <cellStyle name="Accent6 - 20%" xfId="19"/>
-    <cellStyle name="Accent6 - 40%" xfId="20"/>
-    <cellStyle name="Accent6 - 60%" xfId="21"/>
-    <cellStyle name="Cabecera 1" xfId="6"/>
-    <cellStyle name="Cabecera 2" xfId="8"/>
-    <cellStyle name="category" xfId="22"/>
-    <cellStyle name="Currency $" xfId="23"/>
-    <cellStyle name="Date" xfId="24"/>
-    <cellStyle name="Emphasis 1" xfId="25"/>
-    <cellStyle name="Emphasis 2" xfId="26"/>
-    <cellStyle name="Emphasis 3" xfId="27"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="28"/>
-    <cellStyle name="Excel Built-in Normal" xfId="29"/>
-    <cellStyle name="Fecha" xfId="30"/>
-    <cellStyle name="Fijo" xfId="32"/>
-    <cellStyle name="Fixed" xfId="33"/>
-    <cellStyle name="Grey" xfId="34"/>
-    <cellStyle name="HEADER" xfId="35"/>
-    <cellStyle name="Heading1" xfId="36"/>
-    <cellStyle name="Heading2" xfId="37"/>
-    <cellStyle name="Hyperlink 3" xfId="38"/>
-    <cellStyle name="Input [yellow]" xfId="39"/>
-    <cellStyle name="Millares_DIM" xfId="40"/>
-    <cellStyle name="Model" xfId="41"/>
-    <cellStyle name="Moneda_DIM" xfId="42"/>
-    <cellStyle name="Monetario0" xfId="43"/>
+    <cellStyle name="Accent1 - 20%" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent2 - 20%" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent3 - 20%" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent4 - 20%" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Accent5 - 20%" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Accent6 - 20%" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Cabecera 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Cabecera 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="category" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Currency $" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Date" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Emphasis 1" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Emphasis 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Emphasis 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Fecha" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Fijo" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Fixed" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Grey" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="HEADER" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading1" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading2" xfId="37" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Input [yellow]" xfId="39" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Millares_DIM" xfId="40" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Model" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Moneda_DIM" xfId="42" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Monetario0" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="10"/>
-    <cellStyle name="Normal 10" xfId="44"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="Normal 3" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="47"/>
-    <cellStyle name="Œ…‹æØ‚è [0.00]_PRODUCT DETAIL Q1" xfId="48"/>
-    <cellStyle name="Œ…‹æØ‚è_PRODUCT DETAIL Q1" xfId="49"/>
-    <cellStyle name="Percent [2]" xfId="50"/>
-    <cellStyle name="Percent 2" xfId="51"/>
-    <cellStyle name="Porcentual_DIM" xfId="52"/>
-    <cellStyle name="Punto0" xfId="53"/>
-    <cellStyle name="Sheet Title" xfId="31"/>
-    <cellStyle name="subhead" xfId="54"/>
+    <cellStyle name="Normal - Style1" xfId="10" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 10" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Œ…‹æØ‚è [0.00]_PRODUCT DETAIL Q1" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Œ…‹æØ‚è_PRODUCT DETAIL Q1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent [2]" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Porcentual_DIM" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Punto0" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Sheet Title" xfId="31" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="subhead" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,46 +1263,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30519</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>49181</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="NEW MOT LOGO 11"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE077083-C6F3-416D-B25B-180EE9675A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="85490"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="30480" y="353695"/>
-          <a:ext cx="588645" cy="741680"/>
+          <a:off x="0" y="323850"/>
+          <a:ext cx="1809750" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1439,7 +1462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,9 +1495,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1507,6 +1547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1682,14 +1739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1712,7 +1769,7 @@
     <row r="2" spans="1:4" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -1720,24 +1777,24 @@
     <row r="3" spans="1:4" ht="35.25" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1745,7 +1802,7 @@
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1753,13 +1810,13 @@
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
       <c r="A7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="27"/>
     </row>
@@ -1767,10 +1824,10 @@
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1">
@@ -1778,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
@@ -1788,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="35"/>
@@ -1798,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="35"/>
@@ -1808,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="35"/>
@@ -1818,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="35"/>
@@ -1828,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="35"/>
@@ -1838,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="35"/>
@@ -1848,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="35"/>
@@ -1858,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="35"/>
@@ -1868,19 +1925,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="15.75">
       <c r="A19" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="95.25" customHeight="1">
@@ -1891,7 +1948,7 @@
     </row>
     <row r="21" spans="1:4" ht="24" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -1899,7 +1956,7 @@
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -1907,7 +1964,7 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -1915,7 +1972,7 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -1923,7 +1980,7 @@
     </row>
     <row r="25" spans="1:4" ht="26.25" customHeight="1">
       <c r="A25" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -1931,7 +1988,7 @@
     </row>
     <row r="26" spans="1:4" ht="26.25" customHeight="1">
       <c r="A26" s="61" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
@@ -1939,7 +1996,7 @@
     </row>
     <row r="27" spans="1:4" ht="32.25" customHeight="1">
       <c r="A27" s="64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -1947,7 +2004,7 @@
     </row>
     <row r="28" spans="1:4" ht="44.25" customHeight="1">
       <c r="A28" s="64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
@@ -1955,7 +2012,7 @@
     </row>
     <row r="29" spans="1:4" ht="28.5" customHeight="1">
       <c r="A29" s="64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
